--- a/tests/Unit/Service/Inventory/inventory-link-remark-4.xlsx
+++ b/tests/Unit/Service/Inventory/inventory-link-remark-4.xlsx
@@ -1462,7 +1462,7 @@
     <col min="10" max="10" width="10.6719" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.6719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7031" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6719" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
     <col min="15" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -1550,7 +1550,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="10">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1">
@@ -1592,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="10">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
